--- a/EmployeeDatabase.xlsx
+++ b/EmployeeDatabase.xlsx
@@ -1,33 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\pharmacy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CBEA54-01A5-4ADE-BE63-A907A1C88E9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2916" yWindow="1596" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4410" yWindow="3855" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>national id</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>salary/hr</t>
+  </si>
+  <si>
+    <t>check-in</t>
+  </si>
+  <si>
+    <t>check-out</t>
+  </si>
+  <si>
+    <t>working hours</t>
+  </si>
+  <si>
+    <t>Privilege</t>
+  </si>
+  <si>
+    <t>monairy</t>
+  </si>
+  <si>
+    <t>1020304050</t>
+  </si>
+  <si>
+    <t>ahmed alaa</t>
+  </si>
+  <si>
+    <t>2900000</t>
+  </si>
+  <si>
+    <t>2019-12-04 22:24</t>
+  </si>
+  <si>
+    <t>2019-12-04 23:29</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>alaa</t>
+  </si>
+  <si>
+    <t>ahmed aly</t>
+  </si>
+  <si>
+    <t>alaa mahmoud</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +135,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,115 +420,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a7a</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5555</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55555</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>555555</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5555</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5555555</t>
-        </is>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>khg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>.k</t>
-        </is>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ahmed97</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ahmed</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ded</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ahmed</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5632</t>
-        </is>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>789</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
